--- a/SOVA_DIRECTORY.xlsx
+++ b/SOVA_DIRECTORY.xlsx
@@ -9,9 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sova Directory" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sova Directory'!$A$1:$I$105</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -19,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,38 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00EAFFC4"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="000066CC"/>
-      <sz val="10"/>
-      <u val="single"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002D2828"/>
-        <bgColor rgb="002D2828"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -66,35 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="00CCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00CCCCCC"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -463,4734 +416,4532 @@
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
-    <col width="55" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="50" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>I'm looking for...</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Timeline</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Founder</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Sova</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Holistic diagnostic tool helping founders identify gaps across key business elements.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Ecosystem Hub</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://getsova.com.au</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Industry Growth Program</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Matched funding for commercialisation, early-stage and growth projects.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>$50,000 - $5 million</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://business.gov.au/grants-and-programs/industry-growth-program</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Business Research and Innovation Initiative (BRII)</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Innovative solutions for government policy and service delivery challenges.</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>$100,000 - $1 million</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://business.gov.au/grants-and-programs/business-research-and-innovation-initiative</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Entrepreneur's Programme</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Up to 50% matched funding for novel products/services for commercialisation.</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Up to $1 million</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://business.gov.au/grants-and-programs</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Export Market Development Grant (EMDG)</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Matched funding to help export products and services abroad.</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Up to $770,000</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.austrade.gov.au/australian/export/export-grants</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>CSIRO Kick-Start Program</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Matched funding for R&amp;D projects in collaboration with CSIRO.</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Up to $50,000</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.csiro.au/en/work-with-us/funding-programs/programs/csiro-kick-start</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>NSW MVP Ventures Program</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Early-stage startup funding for minimum viable products.</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Closes 21 Dec 2025</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>$25,000 - $200,000</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.investment.nsw.gov.au/mvp</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>LaunchVic Startup Grants</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Various programs to build Victoria's startup ecosystem.</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>$10,000 - $500,000+</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://launchvic.org</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Advance Queensland - Ignite Ideas Fund</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Funding for commercialising innovative products and services.</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>QLD</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>$50,000 - $500,000</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://advance.qld.gov.au</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>SA Seed-Start Program</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Matched funding for early-stage tech startups in South Australia.</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Opens March 2026</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Up to $100,000</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.innovationandskills.sa.gov.au</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>New Industries and Innovation Fund</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Supporting economic diversification and innovation in WA.</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.wa.gov.au/organisation/department-of-jobs-tourism-science-and-innovation</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Innovation Booster Grant</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Up to $40K for startups/SMEs. 75% upfront payment.</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Up to $40,000</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.wa.gov.au/organisation/department-of-energy-and-economic-diversification/new-industries-and-innovation-fund-innovation-booster-grant</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Tasmania Business Growth Programs</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Various small business support grants.</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>TAS</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.business.tas.gov.au</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>ACT Priority Investment Program</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Supporting Canberra innovation precinct development.</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>ACT</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.act.gov.au/business</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>NT Business Innovation Support</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Business innovation support for Northern Territory ventures.</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://nt.gov.au/industry/business</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Business Innovation Program NT</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>NT Government grants plus advisor support.</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Government Grant</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Up to $30,000</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://nt.gov.au/industry/business-grants-funding/business-innovation-program</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Alice Anderson Fund</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Investment fund for female-founded startups in Victoria.</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>$50,000 - $500,000</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://launchvic.org/alice-anderson-fund</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Queensland Female Founders Fund</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Matched funding (1:3 ratio) for QLD female founders.</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>QLD</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>$50,000 - $200,000</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://advance.qld.gov.au</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fearless Innovator Grant</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>For South Australian women entrepreneurs.</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Opens May 2026</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>$20,000 - $60,000</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I20" s="3" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.innovationandskills.sa.gov.au</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Coralus (formerly SheEO)</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0% interest loans to women-led ventures.</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>$50,000 - $100,000</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I21" s="3" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://coralus.world</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Scale Investors</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Angel network exclusively backing female-founded companies.</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>$50,000 - $500,000</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.scaleinvestors.com.au</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Westpac Businesses of Tomorrow</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>$50,000 cash grants plus mentoring.</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>$50,000 + mentoring</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I23" s="3" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.westpac.com.au/business-banking/business-of-tomorrow</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Westpac UNSW 10x Accelerator Scholarships</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>$20,000 scholarships for women founders.</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>$20,000 scholarship</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.westpac.com.au/help/community/female-founders</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Boosting Female Founders</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Federal Government grants supporting women-led startups.</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Female Founder</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://business.gov.au/grants-and-programs/boosting-female-founders-initiative</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Blackbird Ventures</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Australia's largest VC with $10B+ AUM. Pre-seed to growth stage.</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Pre-seed to Growth</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://blackbird.vc</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Airtree Ventures</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>$1.3B under management. Seed to Series B.</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Seed to Series B</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://airtree.vc</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Square Peg Capital</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>One of Australia's largest VCs.</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Seed to Growth</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="3" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://squarepegcap.com</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Main Sequence Ventures</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>CSIRO-backed deep tech VC.</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Seed to Growth</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://mseq.vc</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>EVP (Equity Venture Partners)</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Specialist Australian B2B SaaS investor.</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>$0.5M - $5M</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://evp.com.au</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>AfterWork Ventures</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Pre-seed and seed investor for AU/NZ startups.</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Pre-seed / Seed</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://afterwork.vc</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Tidal Ventures</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Australian-US VC focusing on seed-stage startups.</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Seed</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://tidal.vc</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Flying Fox Ventures</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Pre-seed and seed investor focusing on SaaS, health, and climate.</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Pre-seed / Seed</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://flyingfoxventures.com.au</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Transition Level Investments</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Seed and Series A investor by Steve Baxter.</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Seed / Series A</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://transitionlevel.com</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Giant Leap</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Impact investor backing positive social/environmental outcomes.</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Seed / Series A</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://giantleap.com.au</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Kosmos Ventures</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Perth-based VC focusing on technology, SaaS, and AI.</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Seed to Growth</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://kosmosventures.com</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>ACTivate Capital</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>$50M VC fund by Epic Corporation.</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>ACT</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Pre-seed to Series A</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.epicorp.com.au</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>H2 Ventures</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Australia's leading fintech VC.</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Up to $500,000</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.h2.vc</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Skalata Ventures</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Seed-stage VC with hands-on support.</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Always open</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Seed</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://skalata.vc</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Sydney Angels</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>100+ active angel investors. Monthly pitch nights.</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Angel Network</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Monthly pitch nights</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>$100,000 - $1M</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://sydneyangels.net.au</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Melbourne Angels</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>90+ angel investors backing early-stage ventures.</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Angel Network</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Monthly pitch nights</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>$100,000 - $500,000</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://melbourneangels.com</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Brisbane Angels</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Queensland-based angel network.</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Angel Network</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>QLD</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Monthly pitch nights</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://brisbaneangels.org.au</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Startup &amp; Angels</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Premium networking events connecting startups with investors.</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Angel Network</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.startupandangels.com</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Startup World Cup - Australia</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Winner advances to Grand Finale for US$1 million.</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>US$1 million (Grand Finale)</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.startupworldcup.io</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>SXSW Sydney Pitch</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Win a trip to pitch at SXSW Austin or London.</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.sxswsydney.com/participate/pitch</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>StartCon - Pitch for $1 Million</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Asia Pacific's largest startup pitch competition.</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>$1 million investment</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.startcon.com/pitch</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Peter Farrell Cup (UNSW)</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>$100,000 cash prize pool.</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>June 2026</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Share of $100,000</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://unswfounders.com/peter-farrell-cup</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Australian Technologies Competition</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>$100,000 investment package from Scalare Partners.</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>$100,000 investment</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.austechcomp.com</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>InnovationACT</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Annual pitch competition with $10K prize pool.</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>ACT</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>$10,000</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://cbrin.com.au/innovation-act/</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Smart50 Awards</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>SmartCompany's awards for Australia's 50 fastest-growing SMEs.</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Award</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Mid-2026</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>$15,000+ in prizes</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.smartcompany.com.au/smart50-awards-2025/</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Australian Business Awards (ABA100)</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Categories include Business Innovation, Start-Up of the Year.</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Award</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>July 2026</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="3" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://australianbusinessawards.com.au/</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>InnovationAus Awards for Excellence</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Technology-driven company awards.</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Award</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="3" t="inlineStr">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.innovationausawards.com.au/</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Startmate Accelerator</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Australia's leading accelerator. 12 weeks, ~25 startups selected.</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>2 cohorts per year</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>$120,000 for 7.5% equity</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="3" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.startmate.com/accelerator</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Antler Australia</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Global startup generator. 10-week residency program.</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>$260,000 for 12% equity</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.antler.co/residency/australia</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Google for Startups Accelerator: AI First</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>10-week equity-free program for AI/ML-driven platforms.</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Equity-free + credits</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://startup.google.com/programs/accelerator/ai-first/australia</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Stone &amp; Chalk</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Australia's largest fintech and innovation hub.</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="3" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.stoneandchalk.com.au</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Cicada Innovations</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Australia's leading deep tech incubator.</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="3" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.cicadainnovations.com</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>EnergyLab</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Australia's largest climate tech accelerator.</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://energylab.org.au</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>LawTech Hub by Lander &amp; Rogers</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Australia's longest-running legal tech accelerator.</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>Annual intake</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Equity-free</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="3" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.landers.com.au/legal-innovation/lawtech-hub</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Remarkable Australia+ Accelerator</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>16-week accelerator for disability, health, ageing tech.</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>2026 dates TBA</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Disability</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://remarkable.org.au</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>CyRise</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Australia's only cybersecurity accelerator.</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Annual intake</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>$50,000+</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="3" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.cyrise.co</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>SparkLabs Cultiv8</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>AgTech and FoodTech accelerator based in Orange, NSW.</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Annual intake</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>$100,000</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="3" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://sparklabscultiv8.com</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Melbourne Accelerator Program (MAP)</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Australia's leading university accelerator.</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Annual intake</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>$20,000 (equity-free)</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="3" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.themap.co</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>UNSW Founders 10x</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>10-week accelerator with dedicated mentor.</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Annual intake</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>$100,000 via SAFE</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="3" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://unswfounders.com/10x-accelerator</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>INCUBATE Sydney</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Award-winning USyd program since 2012.</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="3" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://incubate.org.au</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>PLUS EIGHT</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Australia's largest seed-funded accelerator by Spacecubed.</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Annual intake</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Seed investment</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="3" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://pluseight.spacecubed.com</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Venture Catalyst</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>UniSA's 6-month equity-free accelerator with $10K stipend.</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>$10,000 stipend</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="3" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://icc.unisa.edu.au/programs/venture-catalyst/</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>StartNT Program</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Darwin Innovation Hub's accelerator.</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>$50,000 via SAFE</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="3" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://darwininnovationhub.com.au/innovation/start-nt-program/</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Founder Institute</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>World's largest pre-seed accelerator.</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="3" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://fi.co/australia</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>muru-D</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Telstra's innovation hub.</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="3" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.telstra.com.au/business-enterprise/muru-d</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>BlueChilli / SheStarts</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Corporate innovation and startup accelerator.</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I71" s="3" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.bluechilli.com</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Business.gov.au</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>The Australian Government's central hub for business information.</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="3" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://business.gov.au</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Grants and Programs Finder</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Searchable database of grants and assistance.</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="3" t="inlineStr">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://business.gov.au/grants-and-programs</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>AusIndustry</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Federal government's innovation programs.</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="3" t="inlineStr">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.industry.gov.au</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>LaunchVic</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Victoria's dedicated startup agency.</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>VIC</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="3" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://launchvic.org</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>NSW Innovation</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>NSW Government's innovation hub.</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="3" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.nsw.gov.au/business-and-economy/innovation</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Business Queensland</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Queensland's business support portal.</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>QLD</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="3" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.business.qld.gov.au</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>CBR Innovation Network</t>
         </is>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>ACT's innovation hub.</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>ACT</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="3" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://cbrin.com.au</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Sydney Startups</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Australia's largest online startup community with 60K+ members.</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="3" t="inlineStr">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://sydneystartups.com</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>The Startup Network</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>75K+ member community across Melbourne and Sydney.</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="3" t="inlineStr">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://thestartupnetwork.com.au</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Startup Grind</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Global startup community with Australian chapters.</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="3" t="inlineStr">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.startupgrind.com/sydney/</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Fishburners</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Australia's largest startup community.</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="3" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://fishburners.org</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>TechSydney</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Sydney's tech ecosystem hub.</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="3" t="inlineStr">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.techsydney.com.au</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>StartupWA</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>WA's peak startup body.</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="3" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://startupwa.org</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Girls in Tech Australia</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Global organisation empowering women in tech.</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I85" s="3" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://australia.girlsintech.org</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Tech Ready Women</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Training and mentoring program for women in tech.</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="I86" s="3" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://techreadywomen.com.au</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Tech Central</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Sydney's innovation precinct.</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D87" s="2" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Ecosystem Hub</t>
         </is>
       </c>
-      <c r="E87" s="2" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="3" t="inlineStr">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.nsw.gov.au/business-and-economy/innovation</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Sydney Startup Hub</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>NSW Government's 17,000sqm innovation precinct.</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D88" s="2" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Ecosystem Hub</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="3" t="inlineStr">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.investment.nsw.gov.au/sydney-startup-hub/</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Lot Fourteen</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Adelaide's 7-hectare innovation neighbourhood.</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Ecosystem Hub</t>
         </is>
       </c>
-      <c r="E89" s="2" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="3" t="inlineStr">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://lotfourteen.com.au</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Darwin Innovation Hub</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Northern Territory's main startup hub.</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Ecosystem Hub</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr"/>
-      <c r="I90" s="3" t="inlineStr">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://darwininnovationhub.com.au</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Spacecubed</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Western Australia's leading startup hub.</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Ecosystem Hub</t>
         </is>
       </c>
-      <c r="E91" s="2" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="3" t="inlineStr">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://spacecubed.com</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>West Tech Fest</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Australia's longest-running tech festival.</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>WA</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>December</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="3" t="inlineStr">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://westtechfest.com.au/</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="A93" t="inlineStr">
         <is>
           <t>SOUTHSTART</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Australia's #1 entrepreneurship event.</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>March</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="3" t="inlineStr">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://southstart.co</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Sunrise Festival (Blackbird)</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>ANZ's premier startup festival.</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="3" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.thesunrise.live/</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Spark Festival</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Week-long festival 'by startups, for startups'.</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D95" s="2" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>September</t>
         </is>
       </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="3" t="inlineStr">
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://sparkfestival.co/</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="A96" t="inlineStr">
         <is>
           <t>SXSW Sydney</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Tech, film, music, games, culture festival.</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>NSW</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>October</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="3" t="inlineStr">
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://www.sxswsydney.com/</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Barayamal</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>World-leading First Nations entrepreneurship organisation.</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>Indigenous</t>
         </is>
       </c>
-      <c r="I97" s="3" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://barayamal.com.au</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Indigenous Business Australia</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Government agency providing loans up to $100K.</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D98" s="2" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Government Program</t>
         </is>
       </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G98" s="2" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Up to $100,000</t>
         </is>
       </c>
-      <c r="H98" s="2" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Indigenous</t>
         </is>
       </c>
-      <c r="I98" s="3" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://iba.gov.au</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Supply Nation</t>
         </is>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Australia's largest database of verified Indigenous businesses.</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D99" s="2" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Indigenous</t>
         </is>
       </c>
-      <c r="I99" s="3" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>https://supplynation.org.au</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>Many Rivers</t>
         </is>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Free business coaching and microfinance for First Nations.</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Government Program</t>
         </is>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>Indigenous</t>
         </is>
       </c>
-      <c r="I100" s="3" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://manyrivers.org.au</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Catalysr</t>
         </is>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Incubator empowering migrant and refugee entrepreneurs.</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Accelerator</t>
         </is>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Migrant</t>
         </is>
       </c>
-      <c r="I101" s="3" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://catalysr.com.au</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" t="inlineStr">
         <is>
           <t>Thrive Refugee Enterprise</t>
         </is>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Loans up to $50K for refugees and asylum seekers.</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Funding</t>
         </is>
       </c>
-      <c r="D102" s="2" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Government Program</t>
         </is>
       </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>Up to $50,000</t>
         </is>
       </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Migrant</t>
         </is>
       </c>
-      <c r="I102" s="3" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>https://www.thriverefugeeenterprise.org.au</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" t="inlineStr">
         <is>
           <t>DEI Australia</t>
         </is>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Charity supporting entrepreneurs with disability.</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Connections</t>
         </is>
       </c>
-      <c r="D103" s="2" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Disability</t>
         </is>
       </c>
-      <c r="I103" s="3" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>https://www.deiaustralia.com.au</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" t="inlineStr">
         <is>
           <t>Disability Gateway</t>
         </is>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Australian Government's central resource hub.</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Advice</t>
         </is>
       </c>
-      <c r="D104" s="2" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Government Portal</t>
         </is>
       </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>Disability</t>
         </is>
       </c>
-      <c r="I104" s="3" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://www.disabilitygateway.gov.au</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+      <c r="A105" t="inlineStr">
         <is>
           <t>NEIS</t>
         </is>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Training, mentoring, income support for new businesses.</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Programs</t>
         </is>
       </c>
-      <c r="D105" s="2" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Government Program</t>
         </is>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>National</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>Apply anytime</t>
         </is>
       </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>Disability</t>
         </is>
       </c>
-      <c r="I105" s="3" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>https://business.gov.au/grants-and-programs/new-enterprise-incentive-scheme-neis</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I105"/>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I35" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I36" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I37" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I38" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I39" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I40" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I41" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I42" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I43" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I44" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I45" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I46" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I47" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I48" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I49" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I50" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I51" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I52" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I53" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I54" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I55" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I56" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I57" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I58" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I59" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I60" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I61" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I62" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I63" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I64" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I65" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I66" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I67" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I68" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I69" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I70" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I71" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I72" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I73" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I74" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I75" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I76" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I77" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I78" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I79" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I80" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I81" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I82" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I83" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I84" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I85" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I86" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I87" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I88" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I89" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I90" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I91" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I92" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I93" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I94" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I95" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I96" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I97" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I98" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I99" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I100" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I101" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I102" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I103" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I104" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I105" r:id="rId104"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>